--- a/tests/C++/Оригинал/C++.xlsx
+++ b/tests/C++/Оригинал/C++.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlads\OneDrive\Рабочий стол\tests\C++\Оригинал\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -36,228 +36,183 @@
     <t>right</t>
   </si>
   <si>
+    <t>прога</t>
+  </si>
+  <si>
     <t>Что выведет программа?</t>
   </si>
   <si>
+    <t>ABB</t>
+  </si>
+  <si>
     <t>code11</t>
   </si>
   <si>
-    <t>ABB</t>
+    <t>cout</t>
   </si>
   <si>
     <t>Что выведет cout?</t>
   </si>
   <si>
+    <t>12 12</t>
+  </si>
+  <si>
     <t>code12</t>
   </si>
   <si>
+    <t>значение</t>
+  </si>
+  <si>
+    <t>Какое значение будет выведено на экран в результате выполнения следующего кода:</t>
+  </si>
+  <si>
+    <t>16; 25; 36; Неопределённое поведение;</t>
+  </si>
+  <si>
+    <t>code13</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Что будет выведено на экран?</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>code14</t>
+  </si>
+  <si>
+    <t>класс</t>
+  </si>
+  <si>
+    <t>Дан класс. Являются ли функции get_i() и put_i () встраиваемыми функциями?</t>
+  </si>
+  <si>
+    <t>только put_i (); только get_i(); Да; Нет;</t>
+  </si>
+  <si>
+    <t>code15</t>
+  </si>
+  <si>
+    <t>ошибка</t>
+  </si>
+  <si>
+    <t>20; ошибка выполнения; 02; ошибка линковки;</t>
+  </si>
+  <si>
+    <t>code16</t>
+  </si>
+  <si>
+    <t>результат</t>
+  </si>
+  <si>
+    <t>Каков результат работы следующей программы?</t>
+  </si>
+  <si>
+    <t>0 1; 0 2; 0 8; Ошибка компиляции;</t>
+  </si>
+  <si>
+    <t>code17</t>
+  </si>
+  <si>
+    <t>цифра</t>
+  </si>
+  <si>
+    <t>Чему будет равно значение p после выполнения следующей строки кода:</t>
+  </si>
+  <si>
+    <t>code18</t>
+  </si>
+  <si>
+    <t>экран</t>
+  </si>
+  <si>
+    <t>Что произойдёт при попытке откомпилировать и запустить код?</t>
+  </si>
+  <si>
+    <t>На экран будет выведено 667; На экран будет выведено 567; На экран будет выведено 677; На экран будет выведено 555;</t>
+  </si>
+  <si>
+    <t>code19</t>
+  </si>
+  <si>
+    <t>свойство</t>
+  </si>
+  <si>
+    <t>Какое свойство ООП дает концепцию повторного использования?</t>
+  </si>
+  <si>
+    <t>Абстракция; Инкапсуляция; Наследование; Ни одно из вышеперечисленных;</t>
+  </si>
+  <si>
+    <t>копи</t>
+  </si>
+  <si>
+    <t>Что выведет программа:</t>
+  </si>
+  <si>
+    <t>A()copyA()=(); A()copyA(); A()A()=(); A()A()copyA()=();</t>
+  </si>
+  <si>
+    <t>code20</t>
+  </si>
+  <si>
+    <t>функция</t>
+  </si>
+  <si>
+    <t>В одной из записей функции main имеются два аргумента. Какая минимальная величина может быть у аргумента argc?</t>
+  </si>
+  <si>
+    <t>code21</t>
+  </si>
+  <si>
+    <t>число</t>
+  </si>
+  <si>
+    <t>Что выведет на экран следующая программа?</t>
+  </si>
+  <si>
+    <t>15; 29; 13; Программа не скомпилируется;</t>
+  </si>
+  <si>
     <t>code22</t>
   </si>
   <si>
-    <t>12 12</t>
-  </si>
-  <si>
-    <t>Какое значение будет выведено на экран в результате выполнения следующего кода:</t>
-  </si>
-  <si>
-    <t>code13</t>
-  </si>
-  <si>
-    <t>16; 25; 36; Неопределённое поведение;</t>
-  </si>
-  <si>
-    <t>Неопределённое поведение;</t>
-  </si>
-  <si>
-    <t>Что будет выведено на экран?</t>
-  </si>
-  <si>
-    <t>code14</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Дан класс. Являются ли функции get_i() и put_i () встраиваемыми функциями?</t>
-  </si>
-  <si>
-    <t>code15</t>
-  </si>
-  <si>
-    <t>Да;</t>
-  </si>
-  <si>
-    <t>только put_i (); только get_i(); Да; Нет;</t>
-  </si>
-  <si>
-    <t>ошибка линковки;</t>
-  </si>
-  <si>
-    <t>20; ошибка выполнения; 02; ошибка линковки;</t>
-  </si>
-  <si>
-    <t>code16</t>
-  </si>
-  <si>
-    <t>Каков результат работы следующей программы?</t>
-  </si>
-  <si>
-    <t>code17</t>
-  </si>
-  <si>
-    <t>0 8;</t>
-  </si>
-  <si>
-    <t>0 1; 0 2; 0 8; Ошибка компиляции;</t>
-  </si>
-  <si>
-    <t>Чему будет равно значение p после выполнения следующей строки кода:</t>
-  </si>
-  <si>
-    <t>code18</t>
-  </si>
-  <si>
-    <t>Что произойдёт при попытке откомпилировать и запустить код?</t>
-  </si>
-  <si>
-    <t>code19</t>
-  </si>
-  <si>
-    <t>На экран будет выведено 667; На экран будет выведено 567; На экран будет выведено 677; На экран будет выведено 555;</t>
-  </si>
-  <si>
-    <t>На экран будет выведено 667;</t>
-  </si>
-  <si>
-    <t>Какое свойство ООП дает концепцию повторного использования?</t>
-  </si>
-  <si>
-    <t>Наследование;</t>
-  </si>
-  <si>
-    <t>Абстракция; Инкапсуляция; Наследование; Ни одно из вышеперечисленных;</t>
-  </si>
-  <si>
-    <t>Что выведет программа:</t>
-  </si>
-  <si>
-    <t>code20</t>
-  </si>
-  <si>
-    <t>A()copyA();</t>
-  </si>
-  <si>
-    <t>A()copyA()=(); A()copyA(); A()A()=(); A()A()copyA()=();</t>
-  </si>
-  <si>
-    <t>В одной из записей функции main имеются два аргумента. Какая минимальная величина может быть у аргумента argc?</t>
-  </si>
-  <si>
-    <t>code21</t>
-  </si>
-  <si>
-    <t>Что выведет на экран следующая программа?</t>
-  </si>
-  <si>
-    <t>29;</t>
-  </si>
-  <si>
-    <t>15; 29; 13; Программа не скомпилируется;</t>
+    <t>время</t>
   </si>
   <si>
     <t>Что будет выведено на экран:</t>
   </si>
   <si>
+    <t>Ошибка времени выполнения; function B; Ничего; Ошибка компиляции;</t>
+  </si>
+  <si>
     <t>code23</t>
   </si>
   <si>
-    <t>Ошибка времени выполнения;</t>
-  </si>
-  <si>
-    <t>Ошибка времени выполнения; function B; Ничего; Ошибка компиляции;</t>
+    <t>принт</t>
   </si>
   <si>
     <t>Что выведет следующая программа:</t>
   </si>
   <si>
+    <t>printf("boom!"); Ошибка компиляции (библиотека stdio входит только в стандартную библиотеку языка С); Ошибка компиляции (несоответствие типов); Нет правильного ответа;</t>
+  </si>
+  <si>
     <t>code24</t>
-  </si>
-  <si>
-    <t>Нет правильного ответа;</t>
-  </si>
-  <si>
-    <t>printf("boom!"); Ошибка компиляции (библиотека stdio входит только в стандартную библиотеку языка С); Ошибка компиляции (несоответствие типов); Нет правильного ответа;</t>
-  </si>
-  <si>
-    <t>cout</t>
-  </si>
-  <si>
-    <t>экран</t>
-  </si>
-  <si>
-    <t>прога</t>
-  </si>
-  <si>
-    <t>значение</t>
-  </si>
-  <si>
-    <t>класс</t>
-  </si>
-  <si>
-    <t>результат</t>
-  </si>
-  <si>
-    <t>свойство</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>ошибка</t>
-  </si>
-  <si>
-    <t>цифра</t>
-  </si>
-  <si>
-    <t>копи</t>
-  </si>
-  <si>
-    <t>функция</t>
-  </si>
-  <si>
-    <t>число</t>
-  </si>
-  <si>
-    <t>время</t>
-  </si>
-  <si>
-    <t>принт</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -267,6 +222,30 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,23 +268,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,336 +573,338 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f t="shared" ref="A3:A16" si="0">A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A16" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
@@ -928,7 +912,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
@@ -936,7 +920,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
@@ -1149,7 +1133,7 @@
       <c r="F45" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>